--- a/contenido/ficha_102/input/Salidas 2 y 3.xlsx
+++ b/contenido/ficha_102/input/Salidas 2 y 3.xlsx
@@ -758,7 +758,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -796,6 +796,10 @@
     <font/>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -824,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -863,8 +867,11 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3805,7 +3812,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="16">
+      <c r="B7" s="18">
         <f>SUM(B2:B6)</f>
         <v>82926</v>
       </c>
